--- a/数据整理/stocks/A股/创业板/300394-天孚通信.xlsx
+++ b/数据整理/stocks/A股/创业板/300394-天孚通信.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2455,4 +2456,554 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5818</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009837</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1554</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>050007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时平衡配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>54.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>229002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007254</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发均衡价值混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>69.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>69.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300394-天孚通信.xlsx
+++ b/数据整理/stocks/A股/创业板/300394-天孚通信.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3006,4 +3007,476 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009837</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012084</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>53.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>61.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006759</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河乐活优萃混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>61.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012085</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>53.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300394-天孚通信.xlsx
+++ b/数据整理/stocks/A股/创业板/300394-天孚通信.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3479,4 +3480,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300394-天孚通信.xlsx
+++ b/数据整理/stocks/A股/创业板/300394-天孚通信.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3488,7 +3489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3499,17 +3500,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3519,14 +3540,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.48</v>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4237</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3535,14 +3578,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.41</v>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3329</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3551,14 +3616,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8</v>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2667</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3567,13 +3654,943 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2280</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519652</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160518</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012084</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005386</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河睿达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001997</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信银和利混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519646</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - I</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519653</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005387</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银河睿达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012085</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>31</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>6.43</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300394-天孚通信.xlsx
+++ b/数据整理/stocks/A股/创业板/300394-天孚通信.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4489,7 +4490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4500,17 +4501,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4520,14 +4541,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.12</v>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4138</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -4536,14 +4579,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.48</v>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3997</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4552,14 +4617,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.41</v>
+          <t>519651</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河转型增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2620</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4568,14 +4655,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>19</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.8</v>
+          <t>519664</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -4584,13 +4693,621 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160518</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519967</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信利富债券</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012084</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>60.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519665</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006759</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河乐活优萃混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012085</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>31</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>6.43</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300394-天孚通信.xlsx
+++ b/数据整理/stocks/A股/创业板/300394-天孚通信.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5190,7 +5191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5201,17 +5202,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5221,14 +5242,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.78</v>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7887</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -5237,14 +5280,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.12</v>
+          <t>001208</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2245</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -5253,14 +5318,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.48</v>
+          <t>519651</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河转型增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1986</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -5269,14 +5356,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.41</v>
+          <t>519664</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -5285,14 +5394,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>19</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.8</v>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -5301,13 +5432,599 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1010</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160518</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010349</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安低碳经济股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>62.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519665</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>72.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006759</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河乐活优萃混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>34.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>31</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>6.43</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300394-天孚通信.xlsx
+++ b/数据整理/stocks/A股/创业板/300394-天孚通信.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>2.03</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>1.78</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>2.12</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>0.48</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>1.41</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>19</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>31</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>6.43</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003293</t>
+          <t>160813</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达科瑞灵活配置混合</t>
+          <t>长盛同盛成长优选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30.69</t>
+          <t>11.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.29</t>
+          <t>86.61</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7887</t>
+          <t>0.4116</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -694,32 +711,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001208</t>
+          <t>010885</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺安低碳经济股票A</t>
+          <t>长盛优势企业精选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16.15</t>
+          <t>10.61</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.20</t>
+          <t>84.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2245</t>
+          <t>0.3639</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -732,32 +749,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519651</t>
+          <t>519039</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银河转型增长主题灵活配置混合</t>
+          <t>长盛同德主题混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>9.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>87.30</t>
+          <t>83.31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1986</t>
+          <t>0.3300</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519664</t>
+          <t>007346</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>银河美丽优萃混合A</t>
+          <t>易方达科技创新混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>10.36</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.30</t>
+          <t>87.26</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1588</t>
+          <t>0.2424</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519020</t>
+          <t>519651</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合A</t>
+          <t>银河转型增长主题灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.56</t>
+          <t>92.81</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.54</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1440</t>
+          <t>0.1947</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -846,32 +863,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005416</t>
+          <t>009800</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合A</t>
+          <t>长盛制造精选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.12</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>34.92</t>
+          <t>83.23</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1064</t>
+          <t>0.1590</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -884,32 +901,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006502</t>
+          <t>519020</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>财通集成电路产业股票A</t>
+          <t>国泰金泰灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>83.87</t>
+          <t>93.22</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8.56</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1010</t>
+          <t>0.1200</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -932,26 +949,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>81.78</t>
+          <t>78.13</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0876</t>
+          <t>0.0972</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -960,32 +977,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010349</t>
+          <t>010155</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>诺安低碳经济股票C</t>
+          <t>长盛核心成长混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>80.20</t>
+          <t>81.05</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0538</t>
+          <t>0.0859</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -998,36 +1015,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001255</t>
+          <t>160529</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长城改革红利灵活配置混合</t>
+          <t>博时创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>62.01</t>
+          <t>88.28</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0412</t>
+          <t>0.0751</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1036,36 +1053,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006503</t>
+          <t>014885</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>财通集成电路产业股票C</t>
+          <t>长盛匠心研究混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>83.87</t>
+          <t>48.22</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>8.56</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0377</t>
+          <t>0.0462</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1074,36 +1091,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>519665</t>
+          <t>014886</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>银河美丽优萃混合C</t>
+          <t>长盛匠心研究混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>90.30</t>
+          <t>48.22</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0365</t>
+          <t>0.0339</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1117,7 +1134,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>工银瑞信灵活配置混合A</t>
+          <t>工银灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1127,17 +1144,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>72.38</t>
+          <t>74.34</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0346</t>
+          <t>0.0298</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1150,36 +1167,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006759</t>
+          <t>002233</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>银河乐活优萃混合</t>
+          <t>工银瑞信丰收回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>90.18</t>
+          <t>56.82</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0094</t>
+          <t>0.0294</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1188,32 +1205,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005417</t>
+          <t>001650</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
+          <t>工银瑞信丰收回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>34.92</t>
+          <t>56.82</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0076</t>
+          <t>0.0270</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1226,36 +1243,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>519022</t>
+          <t>010886</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国泰金泰灵活配置混合C</t>
+          <t>长盛优势企业精选混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>93.56</t>
+          <t>84.51</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>7.54</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0045</t>
+          <t>0.0257</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1264,33 +1281,147 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>010156</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009801</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>001428</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>工银瑞信灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>72.38</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>74.34</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
         <v>0</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H21" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1356,36 +1487,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>112002</t>
+          <t>003293</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达策略成长二号混合</t>
+          <t>易方达科瑞灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.72</t>
+          <t>30.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.99</t>
+          <t>86.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4138</t>
+          <t>0.7887</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1394,36 +1525,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>110002</t>
+          <t>001208</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达策略成长混合</t>
+          <t>诺安低碳经济股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.15</t>
+          <t>16.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.76</t>
+          <t>80.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3997</t>
+          <t>0.2245</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1442,22 +1573,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.46</t>
+          <t>87.30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2620</t>
+          <t>0.1986</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1480,26 +1611,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.70</t>
+          <t>90.30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1463</t>
+          <t>0.1588</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1508,36 +1639,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>100016</t>
+          <t>519020</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国天源沪港深平衡混合</t>
+          <t>国泰金泰灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>72.29</t>
+          <t>93.56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>7.54</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1265</t>
+          <t>0.1440</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1546,36 +1677,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006502</t>
+          <t>005416</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>财通集成电路产业股票A</t>
+          <t>鹏华尊惠18个月定期开放混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>8.12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>79.76</t>
+          <t>34.92</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.02</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1035</t>
+          <t>0.1064</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1584,36 +1715,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>160518</t>
+          <t>006502</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+          <t>财通集成电路产业股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79.96</t>
+          <t>83.87</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0769</t>
+          <t>0.1010</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1622,36 +1753,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>519967</t>
+          <t>160518</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长信利富债券</t>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>20.15</t>
+          <t>81.78</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0513</t>
+          <t>0.0876</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1660,32 +1791,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>012084</t>
+          <t>010349</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>博时睿弘一年定期开放混合型证券投资基金A</t>
+          <t>诺安低碳经济股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.29</t>
+          <t>80.20</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0500</t>
+          <t>0.0538</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1708,12 +1839,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>60.02</t>
+          <t>62.01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1723,11 +1854,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0422</t>
+          <t>0.0412</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1746,22 +1877,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>79.76</t>
+          <t>83.87</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>8.02</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0369</t>
+          <t>0.0377</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1784,26 +1915,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>92.70</t>
+          <t>90.30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0338</t>
+          <t>0.0365</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1812,36 +1943,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006759</t>
+          <t>487016</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>银河乐活优萃混合</t>
+          <t>工银瑞信灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>91.45</t>
+          <t>72.38</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0129</t>
+          <t>0.0346</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1850,36 +1981,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005482</t>
+          <t>006759</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>博时创新驱动灵活配置混合A</t>
+          <t>银河乐活优萃混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>88.65</t>
+          <t>90.18</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0118</t>
+          <t>0.0094</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1888,32 +2019,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>501002</t>
+          <t>005417</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>长信价值优选混合</t>
+          <t>鹏华尊惠18个月定期开放混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>81.36</t>
+          <t>34.92</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0079</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1926,36 +2057,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005483</t>
+          <t>519022</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>博时创新驱动灵活配置混合C</t>
+          <t>国泰金泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>88.65</t>
+          <t>93.56</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>7.54</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0014</t>
+          <t>0.0045</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1964,12 +2095,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>012085</t>
+          <t>001428</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>博时睿弘一年定期开放混合型证券投资基金C</t>
+          <t>工银瑞信灵活配置混合B</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1979,19 +2110,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>91.29</t>
+          <t>72.38</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2000,6 +2131,706 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4138</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3997</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519651</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河转型增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2620</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519664</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160518</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519967</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信利富债券</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012084</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>60.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519665</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006759</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河乐活优萃混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012085</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2999,7 +3830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3471,7 +4302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4021,7 +4852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4799,7 +5630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300394-天孚通信.xlsx
+++ b/数据整理/stocks/A股/创业板/300394-天孚通信.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>2.3</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>2.03</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>1.78</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>2.12</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>0.48</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>1.41</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1264 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>19</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>31</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>6.43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2800</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2596</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6784</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6561</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6414</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009557</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3982</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3954</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007254</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发均衡价值混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1918</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1905</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001275</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮创新优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>229002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰达宏利逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>168401</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>红土创新转型精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004833</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005515</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华中小市值量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010505</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005516</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华中小市值量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1868,668 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6663</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3224</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519651</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河转型增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014062</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城专精特新量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时创业板两年定开混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014063</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城专精特新量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160518</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015784</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信建投中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015785</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014668</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华专精特新量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>850007</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海通智选一年持有期股票B</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014669</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华专精特新量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>850788</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>海通智选一年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>850799</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海通智选一年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1422,706 +3335,6 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>003293</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达科瑞灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>30.69</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7887</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001208</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>诺安低碳经济股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>16.15</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>80.20</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2245</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519651</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银河转型增长主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.30</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1986</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519664</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银河美丽优萃混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.30</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1588</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519020</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰金泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.56</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.54</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1440</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005416</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华尊惠18个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8.12</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>34.92</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1064</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006502</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>财通集成电路产业股票A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>83.87</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>8.56</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1010</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>160518</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>81.78</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0876</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010349</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>诺安低碳经济股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>80.20</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0538</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001255</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>长城改革红利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>62.01</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0412</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006503</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>财通集成电路产业股票C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>83.87</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>8.56</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0377</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>519665</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>银河美丽优萃混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>90.30</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0365</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>487016</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>工银瑞信灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>72.38</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0346</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006759</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>银河乐活优萃混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>90.18</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0094</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005417</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>34.92</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>519022</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>国泰金泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.56</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>7.54</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001428</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>工银瑞信灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>72.38</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2187,36 +3400,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>112002</t>
+          <t>003293</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达策略成长二号混合</t>
+          <t>易方达科瑞灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.72</t>
+          <t>30.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.99</t>
+          <t>86.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4138</t>
+          <t>0.7887</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2225,36 +3438,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>110002</t>
+          <t>001208</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达策略成长混合</t>
+          <t>诺安低碳经济股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.15</t>
+          <t>16.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.76</t>
+          <t>80.20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3997</t>
+          <t>0.2245</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2273,22 +3486,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.46</t>
+          <t>87.30</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2620</t>
+          <t>0.1986</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2311,26 +3524,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.70</t>
+          <t>90.30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1463</t>
+          <t>0.1588</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2339,36 +3552,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>100016</t>
+          <t>519020</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国天源沪港深平衡混合</t>
+          <t>国泰金泰灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>72.29</t>
+          <t>93.56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>7.54</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1265</t>
+          <t>0.1440</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -2377,36 +3590,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006502</t>
+          <t>005416</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>财通集成电路产业股票A</t>
+          <t>鹏华尊惠18个月定期开放混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>8.12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>79.76</t>
+          <t>34.92</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.02</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1035</t>
+          <t>0.1064</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -2415,36 +3628,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>160518</t>
+          <t>006502</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+          <t>财通集成电路产业股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79.96</t>
+          <t>83.87</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0769</t>
+          <t>0.1010</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -2453,36 +3666,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>519967</t>
+          <t>160518</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长信利富债券</t>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>20.15</t>
+          <t>81.78</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0513</t>
+          <t>0.0876</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -2491,32 +3704,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>012084</t>
+          <t>010349</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>博时睿弘一年定期开放混合型证券投资基金A</t>
+          <t>诺安低碳经济股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.29</t>
+          <t>80.20</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0500</t>
+          <t>0.0538</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -2539,12 +3752,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>60.02</t>
+          <t>62.01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -2554,11 +3767,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0422</t>
+          <t>0.0412</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -2577,22 +3790,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>79.76</t>
+          <t>83.87</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>8.02</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0369</t>
+          <t>0.0377</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -2615,26 +3828,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>92.70</t>
+          <t>90.30</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>4.51</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0338</t>
+          <t>0.0365</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -2643,36 +3856,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006759</t>
+          <t>487016</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>银河乐活优萃混合</t>
+          <t>工银瑞信灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>91.45</t>
+          <t>72.38</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0129</t>
+          <t>0.0346</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -2681,36 +3894,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005482</t>
+          <t>006759</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>博时创新驱动灵活配置混合A</t>
+          <t>银河乐活优萃混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>88.65</t>
+          <t>90.18</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0118</t>
+          <t>0.0094</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -2719,32 +3932,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>501002</t>
+          <t>005417</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>长信价值优选混合</t>
+          <t>鹏华尊惠18个月定期开放混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>81.36</t>
+          <t>34.92</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0079</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -2757,36 +3970,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005483</t>
+          <t>519022</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>博时创新驱动灵活配置混合C</t>
+          <t>国泰金泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>88.65</t>
+          <t>93.56</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>7.54</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0014</t>
+          <t>0.0045</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -2795,12 +4008,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>012085</t>
+          <t>001428</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>博时睿弘一年定期开放混合型证券投资基金C</t>
+          <t>工银瑞信灵活配置混合B</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2810,19 +4023,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>91.29</t>
+          <t>72.38</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2831,6 +4044,706 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4138</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3997</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519651</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河转型增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2620</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519664</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>100016</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国天源沪港深平衡混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160518</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519967</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长信利富债券</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012084</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>60.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519665</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006759</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河乐活优萃混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012085</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时睿弘一年定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3830,7 +5743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4302,7 +6215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4852,7 +6765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5628,1238 +7541,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>720001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>财通价值动量混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>23.23</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>80.22</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2800</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001480</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>财通成长优选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.35</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.53</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.2596</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008983</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>财通科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.79</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.97</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.93</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6784</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009062</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>财通智慧成长混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>9.10</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.67</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.21</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6561</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>501085</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>11.79</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>83.45</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6414</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009557</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>申万菱信创业板量化精选股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9.98</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.10</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3982</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001227</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中邮信息产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>17.34</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>81.47</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3954</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007254</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发均衡价值混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.72</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1918</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006502</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>财通集成电路产业股票A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>95.10</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1905</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>501046</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>财通多策略福鑫定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.41</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1547</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>519975</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>长信量化中小盘股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.62</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0948</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001275</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中邮创新优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>87.08</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0848</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001244</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化智慧灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.33</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0761</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>229002</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>泰达宏利逆向策略混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.37</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.80</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0754</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009063</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>财通智慧成长混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>88.67</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>7.21</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0613</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>008984</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>财通科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.97</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>6.93</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0423</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006503</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>财通集成电路产业股票C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>95.10</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0422</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002210</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>创金合信量化多因子股票A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0209</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005844</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>东方人工智能主题混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>87.01</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.92</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0207</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>009327</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>东兴兴晟混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>79.91</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0184</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>168401</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>红土创新转型精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>90.18</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0164</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>008050</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>同泰慧择混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0138</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>008051</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>同泰慧择混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>009328</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>东兴兴晟混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>79.91</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>004833</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>先锋聚利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>91.97</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>004834</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>先锋聚利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>91.97</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>005515</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>银华中小市值量化优选股票A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>006104</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化智慧灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>92.33</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>010505</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>申万菱信创业板量化精选股票C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>93.10</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>003865</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>创金合信量化多因子股票C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>89.50</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>005516</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>银华中小市值量化优选股票C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>92.12</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>